--- a/public/downloads/doc/classMemberTemp.xlsx
+++ b/public/downloads/doc/classMemberTemp.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\xampp\htdocs\backend\v-school\public\downloads\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Super\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>Name</t>
   </si>
@@ -27,6 +27,99 @@
     <t>PhoneNumber</t>
   </si>
   <si>
+    <t>role</t>
+  </si>
+  <si>
+    <t>Prof. Tyrique Schowalter I</t>
+  </si>
+  <si>
+    <t>Clotilde VonRueden</t>
+  </si>
+  <si>
+    <t>Miss Marlee Wuckert PhD</t>
+  </si>
+  <si>
+    <t>Dr. Estefania Gulgowski Jr.</t>
+  </si>
+  <si>
+    <t>Hilario Kilback</t>
+  </si>
+  <si>
+    <t>Miss Destini Terry</t>
+  </si>
+  <si>
+    <t>Kristoffer Schroeder</t>
+  </si>
+  <si>
+    <t>Miss Loyce Predovic</t>
+  </si>
+  <si>
+    <t>Reed Hoeger</t>
+  </si>
+  <si>
+    <t>Tyreek Pfannerstill MD</t>
+  </si>
+  <si>
+    <t>Blanche Hintz</t>
+  </si>
+  <si>
+    <t>Amie O'Keefe</t>
+  </si>
+  <si>
+    <t>Lavon Graham</t>
+  </si>
+  <si>
+    <t>Sunny Marvin</t>
+  </si>
+  <si>
+    <t>Prudence Bergstrom Sr.</t>
+  </si>
+  <si>
+    <t>Isaac Hermiston</t>
+  </si>
+  <si>
+    <t>Prof. Adelle Will</t>
+  </si>
+  <si>
+    <t>Rene Rippin</t>
+  </si>
+  <si>
+    <t>Trever Marks</t>
+  </si>
+  <si>
+    <t>Domenico Schulist</t>
+  </si>
+  <si>
+    <t>Mrs. Mellie Schroeder</t>
+  </si>
+  <si>
+    <t>Mrs. Angelica Cronin</t>
+  </si>
+  <si>
+    <t>Mrs. Rozella Runte IV</t>
+  </si>
+  <si>
+    <t>Darian Bechtelar</t>
+  </si>
+  <si>
+    <t>Miss Scarlett Champlin PhD</t>
+  </si>
+  <si>
+    <t>Prof. Stefanie Sporer Jr.</t>
+  </si>
+  <si>
+    <t>Dr. Kyle Hermann Sr.</t>
+  </si>
+  <si>
+    <t>Jettie Doyle</t>
+  </si>
+  <si>
+    <t>Ludwig Mueller DVM</t>
+  </si>
+  <si>
+    <t>Dr. Lacey Funk III</t>
+  </si>
+  <si>
     <t>school</t>
   </si>
   <si>
@@ -34,12 +127,6 @@
   </si>
   <si>
     <t>lesson</t>
-  </si>
-  <si>
-    <t>role</t>
-  </si>
-  <si>
-    <t>test</t>
   </si>
 </sst>
 </file>
@@ -135,7 +222,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -170,7 +257,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -379,16 +466,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -402,33 +490,613 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>33</v>
       </c>
       <c r="E1" t="s">
-        <v>4</v>
+        <v>34</v>
       </c>
       <c r="F1" t="s">
-        <v>5</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2">
+        <v>12626015</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3">
+        <v>36031832</v>
+      </c>
+      <c r="C3">
+        <v>5</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4">
+        <v>69363114</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>6</v>
       </c>
-      <c r="B2">
-        <v>678678678</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="F2">
-        <v>5</v>
+      <c r="B5">
+        <v>81592505</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6">
+        <v>48759066</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7">
+        <v>92739104</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8">
+        <v>64456176</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9">
+        <v>95966428</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10">
+        <v>10016623</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11">
+        <v>64493245</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12">
+        <v>33985577</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13">
+        <v>33882565</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14">
+        <v>14582666</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15">
+        <v>76318513</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16">
+        <v>99870416</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17">
+        <v>92978377</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18">
+        <v>73565636</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19">
+        <v>9481707</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20">
+        <v>34788411</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21">
+        <v>68344425</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22">
+        <v>5945296</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23">
+        <v>30424271</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24">
+        <v>24828627</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>26</v>
+      </c>
+      <c r="B25">
+        <v>58572758</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>27</v>
+      </c>
+      <c r="B26">
+        <v>24147776</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>28</v>
+      </c>
+      <c r="B27">
+        <v>70240296</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>29</v>
+      </c>
+      <c r="B28">
+        <v>79387020</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>30</v>
+      </c>
+      <c r="B29">
+        <v>37033629</v>
+      </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>31</v>
+      </c>
+      <c r="B30">
+        <v>32986087</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+      <c r="D30">
+        <v>1</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>32</v>
+      </c>
+      <c r="B31">
+        <v>3211218</v>
+      </c>
+      <c r="C31">
+        <v>1</v>
+      </c>
+      <c r="D31">
+        <v>1</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/public/downloads/doc/classMemberTemp.xlsx
+++ b/public/downloads/doc/classMemberTemp.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Super\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\xampp\htdocs\backend\v-school\public\downloads\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="3675" windowHeight="4515"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -222,7 +222,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -257,7 +257,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
